--- a/Dataset/plot_opts/plot_opts.xlsx
+++ b/Dataset/plot_opts/plot_opts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utente\Desktop\Python-Squad\Dataset\plot_opts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77396D03-F501-4AF3-BA8A-B7691CD0036C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79B0918-FB3A-4612-8CE3-F9ADFED46937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{59408CC7-4366-49B8-88BE-6F007E365A06}"/>
   </bookViews>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
-    <t>def</t>
-  </si>
-  <si>
     <t>Diego</t>
   </si>
   <si>
@@ -72,6 +69,9 @@
   </si>
   <si>
     <t>cadence,ideal_speed</t>
+  </si>
+  <si>
+    <t>default</t>
   </si>
 </sst>
 </file>
@@ -113,7 +113,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -136,6 +136,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -149,7 +160,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -484,9 +495,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873EBC96-0A17-4AFE-95EF-1260780B0407}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -497,66 +510,66 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
       </c>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
       </c>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K5" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K8" s="4"/>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dataset/plot_opts/plot_opts.xlsx
+++ b/Dataset/plot_opts/plot_opts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utente\Desktop\Python-Squad\Dataset\plot_opts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utente\Desktop\AnalisiRunPython\Dataset\plot_opts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79B0918-FB3A-4612-8CE3-F9ADFED46937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD773390-5A48-4A5D-943D-231BDAA0A497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{59408CC7-4366-49B8-88BE-6F007E365A06}"/>
   </bookViews>
@@ -68,10 +68,10 @@
     <t>power,cadence</t>
   </si>
   <si>
-    <t>cadence,ideal_speed</t>
-  </si>
-  <si>
     <t>default</t>
+  </si>
+  <si>
+    <t>cadence,speed</t>
   </si>
 </sst>
 </file>
@@ -498,7 +498,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -510,7 +510,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -555,7 +555,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K4" s="2"/>
     </row>
